--- a/RPA_Project/Data/EmailList.xlsx
+++ b/RPA_Project/Data/EmailList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katherine\Desktop\AN6817_rpa\group\RPA_Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanpu\Dropbox\Personal\CE_Master_NTU\Trimester 3\Sat AN6817 RPA for analytics\Project\Test\Test3\RPA_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3005A7AE-A1B1-4DC6-A8FD-CCA6E98A7170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1AB2DC-31B5-4B28-BD46-BD192F491878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1400" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Email</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,23 +45,29 @@
   <si>
     <t>ptan078@e.ntu.edu.sg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tanpuaymeng@gmail.com</t>
+  </si>
+  <si>
+    <t>caoy0041@e.ntu.edu.sg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -70,7 +76,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -101,11 +107,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EB5E0287-266B-47DF-85F0-54FC92F52F37}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -380,48 +388,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" xr:uid="{1935D183-AD41-4967-A613-D7A5517BDA5F}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{920A4A93-C47F-4D48-86C3-BC23419D0546}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
